--- a/gator_phylogeny.xlsx
+++ b/gator_phylogeny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96DD94-B535-BF45-A592-41DA6AD83A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8312DBE-13E6-674B-A5D8-6E5AC532AEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -95,12 +95,6 @@
     <t>rps6</t>
   </si>
   <si>
-    <t>kofam106</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/106/</t>
-  </si>
-  <si>
     <t>rps3</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>K02991</t>
+  </si>
+  <si>
+    <t>kofam113</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/113/</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -570,10 +570,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -592,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -633,21 +633,21 @@
         <v>9</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" customHeight="1">
       <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1">
@@ -655,18 +655,14 @@
         <v>17</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H1" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -719,11 +715,7 @@
       <c r="A7" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gator_phylogeny.xlsx
+++ b/gator_phylogeny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8312DBE-13E6-674B-A5D8-6E5AC532AEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DBB93-173C-4A4E-8160-0F0E9C605125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>kofam113</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/113/</t>
+    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/kofam/113</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
